--- a/asset/temp/bot_temp.xlsx
+++ b/asset/temp/bot_temp.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6440"/>
   </bookViews>
   <sheets>
     <sheet name="Bot 1" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -74,14 +71,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,35 +379,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="4"/>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C107" s="3"/>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C108" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -425,36 +407,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="G7" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -463,29 +434,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B115"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.36328125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>